--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints2.500000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints2.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.545831533440577e-10</v>
+        <v>1.55254293400283e-10</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.541757761797657e-10</v>
+        <v>1.548942433364754e-10</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.535684070308389e-10</v>
+        <v>1.542946710703615e-10</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.527774566967791e-10</v>
+        <v>1.534764647673766e-10</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.518193359770858e-10</v>
+        <v>1.524605125929531e-10</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.507104556712589e-10</v>
+        <v>1.512677027125247e-10</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.49467226578797e-10</v>
+        <v>1.49918923291523e-10</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.481060594992033e-10</v>
+        <v>1.48435062495385e-10</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.466433652319764e-10</v>
+        <v>1.468370084895422e-10</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.450955545766143e-10</v>
+        <v>1.451456494394261e-10</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.434790383326213e-10</v>
+        <v>1.433818735104745e-10</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.418102272994954e-10</v>
+        <v>1.415665688681185e-10</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.401055322767344e-10</v>
+        <v>1.397206236777894e-10</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.383813640638429e-10</v>
+        <v>1.378649261049253e-10</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.366541334603189e-10</v>
+        <v>1.360203643149573e-10</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.349402512656625e-10</v>
+        <v>1.342078264733188e-10</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.332561282793714e-10</v>
+        <v>1.324482007454411e-10</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.316181753009504e-10</v>
+        <v>1.307623752967622e-10</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.300424282080022e-10</v>
+        <v>1.291706360892211e-10</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.285373832965392e-10</v>
+        <v>1.276811589294862e-10</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.271045542637213e-10</v>
+        <v>1.262909041004852e-10</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.257451914870727e-10</v>
+        <v>1.249964089383804e-10</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.244605453441194e-10</v>
+        <v>1.237942107793359e-10</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.232518662123861e-10</v>
+        <v>1.226808469595146e-10</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.221204044694019e-10</v>
+        <v>1.216528548150833e-10</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.210674104926915e-10</v>
+        <v>1.207067716822048e-10</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.200941346597797e-10</v>
+        <v>1.198391348970422e-10</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.192018273481951e-10</v>
+        <v>1.19046481795762e-10</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.183917389354626e-10</v>
+        <v>1.183253497145269e-10</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.176651197991083e-10</v>
+        <v>1.176722759895014e-10</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.170232203166575e-10</v>
+        <v>1.170837979568487e-10</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.16467290865638e-10</v>
+        <v>1.165564529527346e-10</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.15998581823575e-10</v>
+        <v>1.160867783133224e-10</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.156183435679943e-10</v>
+        <v>1.156713113747758e-10</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.153257128238675e-10</v>
+        <v>1.153055666864336e-10</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.151056801903508e-10</v>
+        <v>1.149782135519033e-10</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.149374303924648e-10</v>
+        <v>1.146751118387918e-10</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.148001304535165e-10</v>
+        <v>1.143821128489285e-10</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.146729473968122e-10</v>
+        <v>1.140850678841415e-10</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.145350482456584e-10</v>
+        <v>1.137698282462593e-10</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.143656000233617e-10</v>
+        <v>1.134222452371101e-10</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.141437697532289e-10</v>
+        <v>1.130281701585232e-10</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.138487244585663e-10</v>
+        <v>1.125734543123269e-10</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.134596311626803e-10</v>
+        <v>1.120439490003489e-10</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.129556568888781e-10</v>
+        <v>1.114255055244192e-10</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.123159686604661e-10</v>
+        <v>1.107039751863657e-10</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.115197335007508e-10</v>
+        <v>1.098652092880169e-10</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.105461184330373e-10</v>
+        <v>1.088950591312001e-10</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.093742904806349e-10</v>
+        <v>1.077793760177462e-10</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.079852634893612e-10</v>
+        <v>1.065051429865295e-10</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.063837940222731e-10</v>
+        <v>1.050738926676857e-10</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.045911100397963e-10</v>
+        <v>1.034972514012181e-10</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.026287708336559e-10</v>
+        <v>1.017870485677039e-10</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.005183356955758e-10</v>
+        <v>9.995511354771965e-11</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>9.828136391728871e-11</v>
+        <v>9.80132757218491e-11</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>9.593941479051887e-11</v>
+        <v>9.597336447066897e-11</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>9.351404760699322e-11</v>
+        <v>9.384720917475817e-11</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>9.10268216584355e-11</v>
+        <v>9.164663921469281e-11</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>8.84992962365792e-11</v>
+        <v>8.938348397105764e-11</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>8.595303063314807e-11</v>
+        <v>8.706957282442879e-11</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>8.340958413986575e-11</v>
+        <v>8.471673515538216e-11</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>8.089012024648921e-11</v>
+        <v>8.23366711891131e-11</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>7.840606827966605e-11</v>
+        <v>7.993790476538386e-11</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>7.595875955002147e-11</v>
+        <v>7.75256646085414e-11</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>7.354905676489319e-11</v>
+        <v>7.51050265315156e-11</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>7.117782263162817e-11</v>
+        <v>7.268106634724586e-11</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>6.884591985756402e-11</v>
+        <v>7.025885986866206e-11</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>6.655421115003857e-11</v>
+        <v>6.784348290869409e-11</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>6.430355921639852e-11</v>
+        <v>6.544001128028137e-11</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>6.209482676398163e-11</v>
+        <v>6.305352079635377e-11</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>5.992887650012584e-11</v>
+        <v>6.068908726984127e-11</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>5.780657113217759e-11</v>
+        <v>5.835178651368314e-11</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>5.572877336747478e-11</v>
+        <v>5.60466943408093e-11</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>5.369634591335815e-11</v>
+        <v>5.377888656415282e-11</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>5.171015147716587e-11</v>
+        <v>5.155343899664384e-11</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>4.977105276624395e-11</v>
+        <v>4.937542745122132e-11</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>4.787991248793047e-11</v>
+        <v>4.724992774081531e-11</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>4.603759334956384e-11</v>
+        <v>4.518201567835623e-11</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>4.424495805848962e-11</v>
+        <v>4.317676707678257e-11</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>4.250286932204613e-11</v>
+        <v>4.12392577490246e-11</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>4.081218984757413e-11</v>
+        <v>3.93745635080154e-11</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>3.917378234241227e-11</v>
+        <v>3.758776016668575e-11</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>3.758850951390558e-11</v>
+        <v>3.588392353797338e-11</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>3.605723406939267e-11</v>
+        <v>3.426812943480896e-11</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>3.458081871621237e-11</v>
+        <v>3.27454536701236e-11</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.316012616170932e-11</v>
+        <v>3.132097205685437e-11</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.179601911322232e-11</v>
+        <v>2.999976040793227e-11</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.049078525357664e-11</v>
+        <v>2.878645026408522e-11</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>2.925411949157881e-11</v>
+        <v>2.768336377569811e-11</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>2.809811600639224e-11</v>
+        <v>2.669207505984891e-11</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>2.703487020812281e-11</v>
+        <v>2.581415784983219e-11</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>2.607647750687692e-11</v>
+        <v>2.505118587894309e-11</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.523503331276463e-11</v>
+        <v>2.440473288047966e-11</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.452263303589219e-11</v>
+        <v>2.38763725877369e-11</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.395137208636649e-11</v>
+        <v>2.346767873401042e-11</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.353334587429661e-11</v>
+        <v>2.318022505259736e-11</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.328064980978928e-11</v>
+        <v>2.301558527679318e-11</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.320537930295205e-11</v>
+        <v>2.297533313989393e-11</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.331962976389275e-11</v>
+        <v>2.306104237519588e-11</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.363549660271866e-11</v>
+        <v>2.327428671599487e-11</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>6.650406832869994e-11</v>
+        <v>6.586845321997198e-11</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>8.902709132823688e-11</v>
+        <v>8.885250497758045e-11</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>8.540625546921086e-11</v>
+        <v>8.444295830727302e-11</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>8.441052866627416e-11</v>
+        <v>8.403584313739023e-11</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>8.417743453778731e-11</v>
+        <v>8.465085224625352e-11</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>8.357140480712747e-11</v>
+        <v>8.412131934862841e-11</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>9.032415000246976e-11</v>
+        <v>9.02058781809035e-11</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.180910408601795e-10</v>
+        <v>1.172938168954553e-10</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.615409445748673e-10</v>
+        <v>1.60894943309957e-10</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.789975722999778e-10</v>
+        <v>1.796390685447685e-10</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.867278347432885e-10</v>
+        <v>1.881186492765358e-10</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.937576679354475e-10</v>
+        <v>1.943035984875727e-10</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.894976931566248e-10</v>
+        <v>1.87906863463238e-10</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.772721143189734e-10</v>
+        <v>1.754429116218186e-10</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.678773500057633e-10</v>
+        <v>1.708914556943474e-10</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.63601193447473e-10</v>
+        <v>1.699112893014889e-10</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.635982040164665e-10</v>
+        <v>1.666158454187603e-10</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.668486982931347e-10</v>
+        <v>1.685869781247435e-10</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.632484649453002e-10</v>
+        <v>1.637373889373874e-10</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>1.559261732604729e-10</v>
+        <v>1.547772070930593e-10</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>1.508339282481516e-10</v>
+        <v>1.506224229808361e-10</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.447555556864308e-10</v>
+        <v>1.449514626637856e-10</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.386771065966707e-10</v>
+        <v>1.390071790216538e-10</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.33803411786825e-10</v>
+        <v>1.346107155517247e-10</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.29745634056494e-10</v>
+        <v>1.310670685070019e-10</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.259422899324213e-10</v>
+        <v>1.274086532507429e-10</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.218433908053063e-10</v>
+        <v>1.227400807741637e-10</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>1.170162329779823e-10</v>
+        <v>1.169025917420343e-10</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.11096680039192e-10</v>
+        <v>1.101680763929857e-10</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.037350822268246e-10</v>
+        <v>1.028130581898752e-10</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>9.511138122216081e-11</v>
+        <v>9.508363549306316e-11</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>8.609344522034094e-11</v>
+        <v>8.718638518846094e-11</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>7.759511453458538e-11</v>
+        <v>7.932524305737714e-11</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>7.042921009484668e-11</v>
+        <v>7.175544366331019e-11</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>6.474234193621959e-11</v>
+        <v>6.507053097626721e-11</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>6.041083468572816e-11</v>
+        <v>5.999805556113995e-11</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>5.723763633333565e-11</v>
+        <v>5.680836643153686e-11</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>5.487584202271956e-11</v>
+        <v>5.482746394553755e-11</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>5.296828630714892e-11</v>
+        <v>5.328481126547428e-11</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>5.132110925667149e-11</v>
+        <v>5.180849815998914e-11</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>4.989022201334473e-11</v>
+        <v>5.039220360338962e-11</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>4.863707883823182e-11</v>
+        <v>4.904313725015301e-11</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>4.752313399239756e-11</v>
+        <v>4.776850875475848e-11</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>4.650984173690509e-11</v>
+        <v>4.657552777168336e-11</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>4.556009734840564e-11</v>
+        <v>4.547080446500491e-11</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>4.465659229473507e-11</v>
+        <v>4.44527133997635e-11</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>4.379640179183227e-11</v>
+        <v>4.351364522313999e-11</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>4.297692484805271e-11</v>
+        <v>4.264585587839527e-11</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>4.219556047175189e-11</v>
+        <v>4.184160130879047e-11</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>4.144970767128638e-11</v>
+        <v>4.10931374575877e-11</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>4.073676545501172e-11</v>
+        <v>4.039272026804803e-11</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>4.005413283128374e-11</v>
+        <v>3.973260568343289e-11</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>3.939920880845801e-11</v>
+        <v>3.910504964700339e-11</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>3.876968879217388e-11</v>
+        <v>3.850328742120856e-11</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>3.816473654034772e-11</v>
+        <v>3.792540581620717e-11</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>3.758396967998922e-11</v>
+        <v>3.737099126019466e-11</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>3.702700597098178e-11</v>
+        <v>3.683963062038967e-11</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>3.649346317320808e-11</v>
+        <v>3.633091076401013e-11</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>3.598295904655101e-11</v>
+        <v>3.584441855827421e-11</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>3.549511135089327e-11</v>
+        <v>3.537974087039988e-11</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>3.502953784611825e-11</v>
+        <v>3.493646456760573e-11</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>3.458585629210859e-11</v>
+        <v>3.45141765171097e-11</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>3.416368444874705e-11</v>
+        <v>3.41124635861298e-11</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>3.376264007591692e-11</v>
+        <v>3.373091264188456e-11</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>3.338234093350091e-11</v>
+        <v>3.336911055159196e-11</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>3.302240478138193e-11</v>
+        <v>3.302664418247017e-11</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>3.268244937944277e-11</v>
+        <v>3.270310040173722e-11</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>3.236209248756662e-11</v>
+        <v>3.239806607661158e-11</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>3.206095186563626e-11</v>
+        <v>3.211112807431125e-11</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>3.177864527353447e-11</v>
+        <v>3.18418732620543e-11</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>3.151479047114444e-11</v>
+        <v>3.158988850705914e-11</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>3.126900521834891e-11</v>
+        <v>3.135476067654381e-11</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>3.104090727503084e-11</v>
+        <v>3.113607663772648e-11</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>3.083011440107301e-11</v>
+        <v>3.093342325782523e-11</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>3.063624435635855e-11</v>
+        <v>3.074638740405843e-11</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>3.045891490077028e-11</v>
+        <v>3.057455594364414e-11</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>3.029774379419104e-11</v>
+        <v>3.041751574380047e-11</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>3.015234879650387e-11</v>
+        <v>3.027485367174572e-11</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>3.002234766759162e-11</v>
+        <v>3.014615659469799e-11</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.990735816733722e-11</v>
+        <v>3.003101137987546e-11</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.980699805562353e-11</v>
+        <v>2.992900489449625e-11</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.972088509233355e-11</v>
+        <v>2.983972400577863e-11</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.964863703735016e-11</v>
+        <v>2.97627555809407e-11</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.958987165055625e-11</v>
+        <v>2.969768648720065e-11</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.954420669183474e-11</v>
+        <v>2.964410359177662e-11</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.951125992106857e-11</v>
+        <v>2.960159376188683e-11</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.949064909814064e-11</v>
+        <v>2.956974386474944e-11</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.948199193312308e-11</v>
+        <v>2.954814073430332e-11</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.948472816034858e-11</v>
+        <v>2.953625229642747e-11</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.949771979865221e-11</v>
+        <v>2.953316049726445e-11</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.951971185107151e-11</v>
+        <v>2.953786910307957e-11</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.954944932064402e-11</v>
+        <v>2.954938188013815e-11</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.95856772104073e-11</v>
+        <v>2.95667025947055e-11</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.96271405233989e-11</v>
+        <v>2.958883501304694e-11</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.967258426265639e-11</v>
+        <v>2.961478290142781e-11</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.972075343121726e-11</v>
+        <v>2.964355002611338e-11</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.97703930321191e-11</v>
+        <v>2.967414015336901e-11</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.982024806839945e-11</v>
+        <v>2.970555704946e-11</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.986906354309589e-11</v>
+        <v>2.973680448065167e-11</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.99155844592459e-11</v>
+        <v>2.976688621320933e-11</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.995855581988708e-11</v>
+        <v>2.979480601339829e-11</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.999672262805698e-11</v>
+        <v>2.98195676474839e-11</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>3.002882988679312e-11</v>
+        <v>2.984017488173144e-11</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>3.005362259913306e-11</v>
+        <v>2.985563148240625e-11</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>3.006984576811435e-11</v>
+        <v>2.986494121577362e-11</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>3.007624439677456e-11</v>
+        <v>2.986710784809891e-11</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>3.00715634881512e-11</v>
+        <v>2.98611351456474e-11</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>3.005454804528185e-11</v>
+        <v>2.984602687468443e-11</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>3.002394307120403e-11</v>
+        <v>2.982078680147529e-11</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>2.997849356895532e-11</v>
+        <v>2.978441869228533e-11</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>2.991694454157325e-11</v>
+        <v>2.973592631337985e-11</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>2.983804099209538e-11</v>
+        <v>2.967431343102416e-11</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>2.974052792355921e-11</v>
+        <v>2.959858381148356e-11</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>2.962315033900237e-11</v>
+        <v>2.950774122102343e-11</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>2.948486601594746e-11</v>
+        <v>2.940086894051476e-11</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>2.93257695581179e-11</v>
+        <v>2.927747508695063e-11</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>2.914633368476184e-11</v>
+        <v>2.913720908048298e-11</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>2.894703136976622e-11</v>
+        <v>2.897972043642322e-11</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>2.872833558701797e-11</v>
+        <v>2.88046586700827e-11</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>2.849071931040396e-11</v>
+        <v>2.861167329677272e-11</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>2.823465551381141e-11</v>
+        <v>2.840041383180486e-11</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>2.796061717112715e-11</v>
+        <v>2.817052979049041e-11</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>2.766907725623804e-11</v>
+        <v>2.792167068814066e-11</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>2.73605087430313e-11</v>
+        <v>2.765348604006722e-11</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>2.703538460539379e-11</v>
+        <v>2.736562536158137e-11</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>2.669417781721247e-11</v>
+        <v>2.705773816799451e-11</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>2.633736135237416e-11</v>
+        <v>2.672947397461788e-11</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>2.596540818476614e-11</v>
+        <v>2.638048229676315e-11</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>2.557879128827524e-11</v>
+        <v>2.601041264974158e-11</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>2.517798363678824e-11</v>
+        <v>2.561891454886438e-11</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>2.476345820419247e-11</v>
+        <v>2.520563750944329e-11</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>2.433560513489321e-11</v>
+        <v>2.477028227429238e-11</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.389393470893449e-11</v>
+        <v>2.431309375544251e-11</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>2.343742664133344e-11</v>
+        <v>2.383464500317792e-11</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>2.296505333070745e-11</v>
+        <v>2.333551359275355e-11</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>2.24757871756733e-11</v>
+        <v>2.281627709942362e-11</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>2.196860057484796e-11</v>
+        <v>2.227751309844265e-11</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>2.144246592684817e-11</v>
+        <v>2.171979916506485e-11</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>2.089635563029137e-11</v>
+        <v>2.114371287454519e-11</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>2.032924208379432e-11</v>
+        <v>2.054983180213792e-11</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>1.974009768597371e-11</v>
+        <v>1.993873352309723e-11</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>1.912789483544706e-11</v>
+        <v>1.931099561267815e-11</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.849160593083109e-11</v>
+        <v>1.86671956461349e-11</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.783020337074246e-11</v>
+        <v>1.800791119872163e-11</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.714343467061632e-11</v>
+        <v>1.733434825505726e-11</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.644054224806405e-11</v>
+        <v>1.665541058840431e-11</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.573713229011876e-11</v>
+        <v>1.598516126182931e-11</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.50489282721907e-11</v>
+        <v>1.533775842743918e-11</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.439165366969103e-11</v>
+        <v>1.472736023734176e-11</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.378103195802996e-11</v>
+        <v>1.416812484364396e-11</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.323278661261804e-11</v>
+        <v>1.367421039845302e-11</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.276264110886562e-11</v>
+        <v>1.325977505387599e-11</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.238631892218364e-11</v>
+        <v>1.293897696202049e-11</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.211954352798244e-11</v>
+        <v>1.272597427499353e-11</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.19780384016725e-11</v>
+        <v>1.263492514490234e-11</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.197752701866449e-11</v>
+        <v>1.267998772385422e-11</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.213373285436887e-11</v>
+        <v>1.287532016395633e-11</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.246097499129779e-11</v>
+        <v>1.323370010439183e-11</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.295359283234672e-11</v>
+        <v>1.374826523461077e-11</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.359105773566527e-11</v>
+        <v>1.43975380121355e-11</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.435248705979921e-11</v>
+        <v>1.515969291421251e-11</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.521699816329454e-11</v>
+        <v>1.601290441808854e-11</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.616370840469608e-11</v>
+        <v>1.693534700100913e-11</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.717173514254978e-11</v>
+        <v>1.790519514022095e-11</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.822019573540122e-11</v>
+        <v>1.890062331297033e-11</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.928820754179649e-11</v>
+        <v>1.989980599650403e-11</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>2.035488792028019e-11</v>
+        <v>2.088091766806746e-11</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.139935422939842e-11</v>
+        <v>2.182213280490738e-11</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.240072382769718e-11</v>
+        <v>2.27016258842705e-11</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.333811407372116e-11</v>
+        <v>2.349757138340233e-11</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.419064232601644e-11</v>
+        <v>2.41881437795496e-11</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>2.49388741923476e-11</v>
+        <v>2.475616653301522e-11</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>2.558364110159576e-11</v>
+        <v>2.524951783208705e-11</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.614068675054929e-11</v>
+        <v>2.576394530625733e-11</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.662627221361485e-11</v>
+        <v>2.639628929675738e-11</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.714871415527938e-11</v>
+        <v>2.723399242407548e-11</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.80556202712754e-11</v>
+        <v>2.833802321429314e-11</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.943665772998398e-11</v>
+        <v>2.965439460510338e-11</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>3.089592510097242e-11</v>
+        <v>3.094829775051281e-11</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.204303265130263e-11</v>
+        <v>3.199331829503697e-11</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.27760671079225e-11</v>
+        <v>3.270689812603449e-11</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.309592345707424e-11</v>
+        <v>3.305774712660066e-11</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.300362276009705e-11</v>
+        <v>3.301463805043622e-11</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>3.250494218951692e-11</v>
+        <v>3.255210896481813e-11</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>3.169944341123087e-11</v>
+        <v>3.175838262429075e-11</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>3.077254369942282e-11</v>
+        <v>3.082575515019291e-11</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.991282678266626e-11</v>
+        <v>2.995036101031172e-11</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>2.930887638953589e-11</v>
+        <v>2.932833467243549e-11</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>2.914927624860511e-11</v>
+        <v>2.915581060435129e-11</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>2.962261008844781e-11</v>
+        <v>2.962892327384657e-11</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>3.09174616376386e-11</v>
+        <v>3.094380714870959e-11</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>3.322241462475023e-11</v>
+        <v>3.329659669672672e-11</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>3.660605068524923e-11</v>
+        <v>3.675683886533486e-11</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>3.974354116844331e-11</v>
+        <v>3.992420329909744e-11</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>4.085924052881011e-11</v>
+        <v>4.092035734012986e-11</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>4.038245081069468e-11</v>
+        <v>4.01807832142881e-11</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>3.941578460371386e-11</v>
+        <v>3.884913692675608e-11</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.854396563085798e-11</v>
+        <v>3.758493995611744e-11</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>3.769168879661497e-11</v>
+        <v>3.643067355149727e-11</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>3.674082137892353e-11</v>
+        <v>3.538878075797232e-11</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>3.557324662314174e-11</v>
+        <v>3.44617074771321e-11</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>3.415514952246258e-11</v>
+        <v>3.366698088539652e-11</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.273380010065844e-11</v>
+        <v>3.307241324467195e-11</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>3.161498058287988e-11</v>
+        <v>3.27562844360133e-11</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.110447319427745e-11</v>
+        <v>3.27968743404756e-11</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.147252294345904e-11</v>
+        <v>3.325586964604459e-11</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.251146794905283e-11</v>
+        <v>3.397181065880374e-11</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>3.367147817349521e-11</v>
+        <v>3.462347102807244e-11</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>3.439528769523271e-11</v>
+        <v>3.488615240759222e-11</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>3.424508988801309e-11</v>
+        <v>3.450560666656869e-11</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>3.329595600272074e-11</v>
+        <v>3.353005152133884e-11</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>3.176056992492827e-11</v>
+        <v>3.208886069824286e-11</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>2.985161722300961e-11</v>
+        <v>3.03114089160397e-11</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>2.778178337370286e-11</v>
+        <v>2.832707100298009e-11</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.57537991783571e-11</v>
+        <v>2.627711615633456e-11</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>2.393305217999935e-11</v>
+        <v>2.434743325986821e-11</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>2.247617494452932e-11</v>
+        <v>2.273437210386463e-11</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>2.153980003784762e-11</v>
+        <v>2.163428247860832e-11</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>2.126910764989695e-11</v>
+        <v>2.12304167307533e-11</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>2.162948126260365e-11</v>
+        <v>2.150040374010071e-11</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.244345133108819e-11</v>
+        <v>2.225849934727655e-11</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.352960742521744e-11</v>
+        <v>2.331445242224391e-11</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.470653911485666e-11</v>
+        <v>2.447801183496431e-11</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.579283596987264e-11</v>
+        <v>2.555892645540072e-11</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.660708756013171e-11</v>
+        <v>2.636694515351569e-11</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>2.696788345550023e-11</v>
+        <v>2.67118167992718e-11</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.669458710673082e-11</v>
+        <v>2.640410795183593e-11</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.570736378257066e-11</v>
+        <v>2.536089323874598e-11</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.412612645427125e-11</v>
+        <v>2.371030242899029e-11</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>2.209430258116288e-11</v>
+        <v>2.160531090202166e-11</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.975531962257381e-11</v>
+        <v>1.919889403729074e-11</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.725260503783283e-11</v>
+        <v>1.66440272142488e-11</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.472958628626767e-11</v>
+        <v>1.409368581234597e-11</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.232969082720947e-11</v>
+        <v>1.170084521103587e-11</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.019634611998591e-11</v>
+        <v>9.618480789768606e-12</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>8.472679048309362e-12</v>
+        <v>7.999231517650536e-12</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>7.239662125918362e-12</v>
+        <v>6.926171928398618e-12</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>6.440355327987148e-12</v>
+        <v>6.328022036774973e-12</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>5.999275697742798e-12</v>
+        <v>6.112748230855273e-12</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>5.840940278412371e-12</v>
+        <v>6.18831689871526e-12</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>5.889866113223059e-12</v>
+        <v>6.462694428430505e-12</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>6.070570245401807e-12</v>
+        <v>6.843847208076642e-12</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>6.307569718175803e-12</v>
+        <v>7.239741625729507e-12</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>6.525381574771885e-12</v>
+        <v>7.558344069464377e-12</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>6.652909843979564e-12</v>
+        <v>7.713135584462339e-12</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>6.685780602677516e-12</v>
+        <v>7.70147011936921e-12</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>6.671540588808014e-12</v>
+        <v>7.585968453180363e-12</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>6.659104746605478e-12</v>
+        <v>7.430971267645327e-12</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>6.697388020304302e-12</v>
+        <v>7.300819244513467e-12</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>6.835305354138971e-12</v>
+        <v>7.259853065534198e-12</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>7.121771692343772e-12</v>
+        <v>7.37241341245698e-12</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>7.605701979153135e-12</v>
+        <v>7.702840967031172e-12</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>8.336011158801449e-12</v>
+        <v>8.315476411006174e-12</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>9.343537137281033e-12</v>
+        <v>9.252709923223227e-12</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.058456695007397e-11</v>
+        <v>1.046640639414338e-11</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.199617195451092e-11</v>
+        <v>1.188509758888377e-11</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.351542348825098e-11</v>
+        <v>1.343731524867494e-11</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.507939288895394e-11</v>
+        <v>1.505159111474815e-11</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.662515149427745e-11</v>
+        <v>1.665645692833246e-11</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.80897706418813e-11</v>
+        <v>1.818044443065913e-11</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.941032166942514e-11</v>
+        <v>1.955208536295928e-11</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>2.05244570993572e-11</v>
+        <v>2.070051217360162e-11</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.147883199723654e-11</v>
+        <v>2.166752131550559e-11</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.255666760819069e-11</v>
+        <v>2.273942182240554e-11</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.407219075846049e-11</v>
+        <v>2.423456980539722e-11</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.633962827428807e-11</v>
+        <v>2.647132137557761e-11</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.967320698191513e-11</v>
+        <v>2.976803264404328e-11</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>3.438715370758583e-11</v>
+        <v>3.444305972189323e-11</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>4.079569527753775e-11</v>
+        <v>4.081475872021995e-11</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>4.921305851801439e-11</v>
+        <v>4.920148575012177e-11</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>5.994658708902041e-11</v>
+        <v>5.991468303094652e-11</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>7.291803953594411e-11</v>
+        <v>7.28784864682637e-11</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>8.746676427638824e-11</v>
+        <v>8.743202204078372e-11</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.02883750511747e-10</v>
+        <v>1.02865840642088e-10</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.184599874434163e-10</v>
+        <v>1.184704931657595e-10</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.334864642727705e-10</v>
+        <v>1.335365305053598e-10</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.472541702012055e-10</v>
+        <v>1.473545035544721e-10</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.59054094430115e-10</v>
+        <v>1.592149632066771e-10</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.681772261608769e-10</v>
+        <v>1.684084603555399e-10</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.740560758223889e-10</v>
+        <v>1.743667292310873e-10</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.768638191793346e-10</v>
+        <v>1.772604010128726e-10</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.770151228545672e-10</v>
+        <v>1.775010211636202e-10</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.749247863714086e-10</v>
+        <v>1.755002677292142e-10</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.710076092531812e-10</v>
+        <v>1.716698187555397e-10</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.656783910232071e-10</v>
+        <v>1.66421352288481e-10</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.593519312048049e-10</v>
+        <v>1.601665463739194e-10</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.524430293213025e-10</v>
+        <v>1.533170790577451e-10</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.453664791136177e-10</v>
+        <v>1.462846226695864e-10</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.384595706130881e-10</v>
+        <v>1.394042324360182e-10</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.317877942108315e-10</v>
+        <v>1.327422732053436e-10</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.253570917090225e-10</v>
+        <v>1.263062424451884e-10</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.191734049098385e-10</v>
+        <v>1.201036376231815e-10</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.132426756154547e-10</v>
+        <v>1.141419562069492e-10</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.075708456280539e-10</v>
+        <v>1.084286956641257e-10</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.02163856749811e-10</v>
+        <v>1.029713534623372e-10</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>9.70276507829036e-11</v>
+        <v>9.777742706921257e-11</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>9.216816952950721e-11</v>
+        <v>9.28544139523786e-11</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>8.759135479180381e-11</v>
+        <v>8.820981157946859e-11</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>8.330314837196869e-11</v>
+        <v>8.385111741810913e-11</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>7.93094920721778e-11</v>
+        <v>7.978582893592744e-11</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>7.561632769461229e-11</v>
+        <v>7.602144360055601e-11</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>7.22295970414479e-11</v>
+        <v>7.256545887962188e-11</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>6.915524191486095e-11</v>
+        <v>6.942537224075261e-11</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>6.63992041170318e-11</v>
+        <v>6.66086811515799e-11</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>6.396742545013656e-11</v>
+        <v>6.41228830797312e-11</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>6.186328211438622e-11</v>
+        <v>6.197271176647432e-11</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>6.007301148592284e-11</v>
+        <v>6.014443861149324e-11</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>5.857582866326594e-11</v>
+        <v>5.861677045300346e-11</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>5.735092752971673e-11</v>
+        <v>5.736839127569187e-11</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>5.637750196857724e-11</v>
+        <v>5.637798506424626e-11</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>5.563474586314923e-11</v>
+        <v>5.562423580335413e-11</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>5.51018530967354e-11</v>
+        <v>5.508582747770395e-11</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>5.475801755263739e-11</v>
+        <v>5.474144407198306e-11</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>5.458243311415722e-11</v>
+        <v>5.456976957087926e-11</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>5.455429366459706e-11</v>
+        <v>5.454948795908041e-11</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>5.465279308725883e-11</v>
+        <v>5.465928322127423e-11</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>5.485712526544471e-11</v>
+        <v>5.487783934214862e-11</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>5.514648408245653e-11</v>
+        <v>5.518384030639115e-11</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>5.550006342159639e-11</v>
+        <v>5.555597009868966e-11</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>5.589705716616653e-11</v>
+        <v>5.597291270373214e-11</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>5.631665919946843e-11</v>
+        <v>5.641335210620579e-11</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>5.673806340480487e-11</v>
+        <v>5.685597229079916e-11</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>5.71404636654775e-11</v>
+        <v>5.727945724219963e-11</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>5.750305386478802e-11</v>
+        <v>5.766249094509463e-11</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>5.78050278860391e-11</v>
+        <v>5.798375738417261e-11</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>5.802557961253226e-11</v>
+        <v>5.822194054412081e-11</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>5.814390292756994e-11</v>
+        <v>5.835572440962739e-11</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>5.813919171445389e-11</v>
+        <v>5.836379296537986e-11</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>5.799063985648632e-11</v>
+        <v>5.82248301960662e-11</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>5.767744123696902e-11</v>
+        <v>5.791752008637388e-11</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>5.717878973920405e-11</v>
+        <v>5.742054662099077e-11</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>5.64758664165783e-11</v>
+        <v>5.671462828608874e-11</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>5.55730213939922e-11</v>
+        <v>5.58042044917508e-11</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>5.448958504147387e-11</v>
+        <v>5.470905170007049e-11</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>5.324513886207787e-11</v>
+        <v>5.34492034877784e-11</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>5.185926435885532e-11</v>
+        <v>5.204469343160162e-11</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>5.035154303486071e-11</v>
+        <v>5.051555510827068e-11</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>4.874155639314893e-11</v>
+        <v>4.888182209451644e-11</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>4.704888593677044e-11</v>
+        <v>4.716352796706538e-11</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>4.529311316878008e-11</v>
+        <v>4.538070630264832e-11</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>4.349381959223288e-11</v>
+        <v>4.355339067799633e-11</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>4.167058671017898e-11</v>
+        <v>4.17016146698355e-11</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>3.984299602567505e-11</v>
+        <v>3.984541185489854e-11</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>3.803062904177114e-11</v>
+        <v>3.800481580991149e-11</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>3.625306726152234e-11</v>
+        <v>3.619986011160542e-11</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>3.452989218798358e-11</v>
+        <v>3.445057833671131e-11</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>3.28806853242051e-11</v>
+        <v>3.277700406195535e-11</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>3.132502817324194e-11</v>
+        <v>3.119917086406859e-11</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>2.988212801051609e-11</v>
+        <v>2.973672897725243e-11</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>2.856037952792037e-11</v>
+        <v>2.839825269487251e-11</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>2.735597602748198e-11</v>
+        <v>2.71798177365817e-11</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>2.626445755026615e-11</v>
+        <v>2.607683064988308e-11</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>2.528136413733521e-11</v>
+        <v>2.508469798227672e-11</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>2.440223582975518e-11</v>
+        <v>2.419882628126653e-11</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>2.362261266858881e-11</v>
+        <v>2.341462209435302e-11</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>2.293803469490119e-11</v>
+        <v>2.272749196903912e-11</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>2.234404194975711e-11</v>
+        <v>2.213284245282744e-11</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>2.183617447421978e-11</v>
+        <v>2.162608009321899e-11</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>2.140997230935406e-11</v>
+        <v>2.120261143771645e-11</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.106097549622451e-11</v>
+        <v>2.08578430338222e-11</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.078472407589479e-11</v>
+        <v>2.058718142903771e-11</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.057675808942952e-11</v>
+        <v>2.038603317086544e-11</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.04326175778931e-11</v>
+        <v>2.024980480680757e-11</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.034784258234955e-11</v>
+        <v>2.017390288436594e-11</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.031797314386331e-11</v>
+        <v>2.015373395104282e-11</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.033854930349862e-11</v>
+        <v>2.018470455434026e-11</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.040511110231979e-11</v>
+        <v>2.02622212417604e-11</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.051319858139102e-11</v>
+        <v>2.038169056080521e-11</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.065835178177677e-11</v>
+        <v>2.053851905897702e-11</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.083611074454124e-11</v>
+        <v>2.072811328377782e-11</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.104201551074853e-11</v>
+        <v>2.094587978270952e-11</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.127160612146328e-11</v>
+        <v>2.118722510327459e-11</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.152042261774961e-11</v>
+        <v>2.144755579297495e-11</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.178400504067155e-11</v>
+        <v>2.172227839931245e-11</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.205789343129387e-11</v>
+        <v>2.200679946978969e-11</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.233762783068062e-11</v>
+        <v>2.229652555190851e-11</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.261874827989582e-11</v>
+        <v>2.258686319317077e-11</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.289679482000427e-11</v>
+        <v>2.287321894107907e-11</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.316730749206999e-11</v>
+        <v>2.315099934313525e-11</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.342582633715704e-11</v>
+        <v>2.341561094684117e-11</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.366789139633018e-11</v>
+        <v>2.366246029969944e-11</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.388904271065327e-11</v>
+        <v>2.388695394921169e-11</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.408482032119095e-11</v>
+        <v>2.408449844288043e-11</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.425153906568269e-11</v>
+        <v>2.425128935937632e-11</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.439735100877708e-11</v>
+        <v>2.439557697672565e-11</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.453964694980195e-11</v>
+        <v>2.453502004081962e-11</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.469606275851069e-11</v>
+        <v>2.468752687038635e-11</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.488423430465663e-11</v>
+        <v>2.487100578415392e-11</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.512179745799361e-11</v>
+        <v>2.510336510085091e-11</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.542638808827502e-11</v>
+        <v>2.540251313920544e-11</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>2.581564206525398e-11</v>
+        <v>2.578635821794536e-11</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.630719525868471e-11</v>
+        <v>2.627280865579964e-11</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.69186835383198e-11</v>
+        <v>2.687977277149562e-11</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.766774277391386e-11</v>
+        <v>2.762515888376263e-11</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.857200883521992e-11</v>
+        <v>2.852687531132844e-11</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>2.964911759199045e-11</v>
+        <v>2.960283037292028e-11</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>3.091670491398091e-11</v>
+        <v>3.087093238726832e-11</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>3.239240667094392e-11</v>
+        <v>3.234908967309994e-11</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>3.409385873263137e-11</v>
+        <v>3.405521054914176e-11</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>3.603869696879984e-11</v>
+        <v>3.600720333412509e-11</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>3.824455724920141e-11</v>
+        <v>3.822297634677678e-11</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>4.072907544358724e-11</v>
+        <v>4.072043790582269e-11</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>4.350988742171531e-11</v>
+        <v>4.351749632999557e-11</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>4.660462905333705e-11</v>
+        <v>4.663205993802158e-11</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>5.003093620820273e-11</v>
+        <v>5.008203704862571e-11</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>5.37973976796565e-11</v>
+        <v>5.387621231286069e-11</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>5.781530916576454e-11</v>
+        <v>5.792525361695184e-11</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>6.193674608911459e-11</v>
+        <v>6.208010722119042e-11</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>6.601294474651742e-11</v>
+        <v>6.619087315617101e-11</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>6.989514143476933e-11</v>
+        <v>7.010765145247355e-11</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>7.343457245068069e-11</v>
+        <v>7.368054214069215e-11</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>7.648247409105127e-11</v>
+        <v>7.675964525141025e-11</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>7.889008265268246e-11</v>
+        <v>7.919506081521292e-11</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>8.050863443238205e-11</v>
+        <v>8.083688886269172e-11</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>8.118936572695086e-11</v>
+        <v>8.153522942443111e-11</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>8.078351283319312e-11</v>
+        <v>8.114018253101898e-11</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>7.914231204791148e-11</v>
+        <v>7.950184821304177e-11</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>7.611699966790912e-11</v>
+        <v>7.647032650108632e-11</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>7.161087331550715e-11</v>
+        <v>7.194805209997315e-11</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>6.588508917585164e-11</v>
+        <v>6.619719721872318e-11</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>5.935124135780795e-11</v>
+        <v>5.963116186649329e-11</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>5.24214445696745e-11</v>
+        <v>5.266386938528792e-11</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>4.55078135197673e-11</v>
+        <v>4.570924311712935e-11</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>3.90224629164023e-11</v>
+        <v>3.918120640403972e-11</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>3.337750746787799e-11</v>
+        <v>3.349368258802357e-11</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>2.89850618825109e-11</v>
+        <v>2.906059501110364e-11</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>2.625724086861307e-11</v>
+        <v>2.629586701529818e-11</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>2.551157908558226e-11</v>
+        <v>2.551851791824767e-11</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>2.66336900683944e-11</v>
+        <v>2.661416640614957e-11</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>2.938596104254529e-11</v>
+        <v>2.934478275506501e-11</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>3.353076993481772e-11</v>
+        <v>3.347232791049008e-11</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>3.883049467198237e-11</v>
+        <v>3.875876281790884e-11</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>4.504751318082664e-11</v>
+        <v>4.4966048422822e-11</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>5.19442033881239e-11</v>
+        <v>5.185614567071629e-11</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>5.928294322064508e-11</v>
+        <v>5.919101550707601e-11</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>6.682611060518127e-11</v>
+        <v>6.673261887740558e-11</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>7.433608346850369e-11</v>
+        <v>7.424291672718954e-11</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>8.157523973738368e-11</v>
+        <v>8.148387000191262e-11</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>8.830595733861215e-11</v>
+        <v>8.821743964707904e-11</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>9.429061419896003e-11</v>
+        <v>9.42055866081731e-11</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>9.929158824520111e-11</v>
+        <v>9.921027183068192e-11</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.030712574041221e-10</v>
+        <v>1.029934562601056e-10</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.053919996024959e-10</v>
+        <v>1.053171008419303e-10</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.060161927671002e-10</v>
+        <v>1.059431665216472e-10</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.047558670789108e-10</v>
+        <v>1.046833388394695e-10</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.01755925055626e-10</v>
+        <v>1.016826606484896e-10</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>9.729809587378557e-11</v>
+        <v>9.722320080933912e-11</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>9.166452934276737e-11</v>
+        <v>9.158744942832632e-11</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>8.513737527196723e-11</v>
+        <v>8.505789661177742e-11</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>7.79987834707594e-11</v>
+        <v>7.791703246599692e-11</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>7.053090374853556e-11</v>
+        <v>7.044734709730694e-11</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>6.301588591468861e-11</v>
+        <v>6.293133061203065e-11</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>5.573587977859101e-11</v>
+        <v>5.565147311647091e-11</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>4.897303514963574e-11</v>
+        <v>4.889026471695102e-11</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>4.300931831235774e-11</v>
+        <v>4.293001164754619e-11</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>3.802504236315008e-11</v>
+        <v>3.795117453715967e-11</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>3.393023730979376e-11</v>
+        <v>3.386341931331222e-11</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>3.059050855885273e-11</v>
+        <v>3.05319032119806e-11</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>2.787146151688236e-11</v>
+        <v>2.782178346913292e-11</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.563870159044904e-11</v>
+        <v>2.559821732074838e-11</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>2.375783418611013e-11</v>
+        <v>2.372636200279708e-11</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>2.209489722325401e-11</v>
+        <v>2.207180886855537e-11</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.055889735283852e-11</v>
+        <v>2.0543277402217e-11</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.913767750461451e-11</v>
+        <v>1.912861582249133e-11</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.782752585387245e-11</v>
+        <v>1.782414892260968e-11</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.662473057590244e-11</v>
+        <v>1.662620149580297e-11</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.552557984599138e-11</v>
+        <v>1.553109833529895e-11</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.452636183942945e-11</v>
+        <v>1.453516423432862e-11</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.36233647315065e-11</v>
+        <v>1.363472398612267e-11</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.281287669750995e-11</v>
+        <v>1.282610238390935e-11</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.209118591272971e-11</v>
+        <v>1.210562422091942e-11</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.145458055245539e-11</v>
+        <v>1.146961429038331e-11</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.08993487919749e-11</v>
+        <v>1.091439738552976e-11</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.042177880657789e-11</v>
+        <v>1.043629829958929e-11</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.001815877155378e-11</v>
+        <v>1.003164182579211e-11</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>9.684776862190882e-12</v>
+        <v>9.696752757367398e-12</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>9.417921253778878e-12</v>
+        <v>9.42795588754566e-12</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>9.213880121606336e-12</v>
+        <v>9.221576009556295e-12</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>9.068941640962593e-12</v>
+        <v>9.073937916629486e-12</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>8.979393987136762e-12</v>
+        <v>8.981366401995174e-12</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>8.941525335417743e-12</v>
+        <v>8.940186258883092e-12</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>8.951623861094696e-12</v>
+        <v>8.946722280523239e-12</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>9.005977739456618e-12</v>
+        <v>8.997299260145449e-12</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>9.100875145792666e-12</v>
+        <v>9.088241990979706e-12</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>9.232604255391869e-12</v>
+        <v>9.215875266255883e-12</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>9.39745324354312e-12</v>
+        <v>9.376523879203706e-12</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>9.591710285535785e-12</v>
+        <v>9.566512623053369e-12</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>9.811663556658568e-12</v>
+        <v>9.782166291034424e-12</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>1.005360123220094e-11</v>
+        <v>1.001980967637717e-11</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>1.031381148745177e-11</v>
+        <v>1.027576757231129e-11</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>1.058858249769985e-11</v>
+        <v>1.054636477206646e-11</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.087420243823476e-11</v>
+        <v>1.082792606887304e-11</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.116695948434529e-11</v>
+        <v>1.111677625596071e-11</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.146314181132025e-11</v>
+        <v>1.140924012655907e-11</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.175903759444923e-11</v>
+        <v>1.170164247389857e-11</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.205093500902103e-11</v>
+        <v>1.199030809120882e-11</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.233512223032444e-11</v>
+        <v>1.227156177171948e-11</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.260788743364905e-11</v>
+        <v>1.254172830866095e-11</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.286551879428343e-11</v>
+        <v>1.279713249526264e-11</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.31043044875171e-11</v>
+        <v>1.303409912475491e-11</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.332053268863889e-11</v>
+        <v>1.324895299036741e-11</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.351049265956995e-11</v>
+        <v>1.343801995808699e-11</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.36716103842437e-11</v>
+        <v>1.359874810114983e-11</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.380460067088777e-11</v>
+        <v>1.37318323222061e-11</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.391076966515419e-11</v>
+        <v>1.383855131056382e-11</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.399142351269524e-11</v>
+        <v>1.392018375553131e-11</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.404786835916289e-11</v>
+        <v>1.397800834641657e-11</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.408141035020924e-11</v>
+        <v>1.401330377252768e-11</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.409335563148641e-11</v>
+        <v>1.402734872317281e-11</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.408501034864649e-11</v>
+        <v>1.402142188766004e-11</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.405768064734158e-11</v>
+        <v>1.399680195529751e-11</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.401267267322372e-11</v>
+        <v>1.395476761539327e-11</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.395129257194504e-11</v>
+        <v>1.389659755725546e-11</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.387484648915771e-11</v>
+        <v>1.382357047019226e-11</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.378464057051366e-11</v>
+        <v>1.373696504351165e-11</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.368198096166517e-11</v>
+        <v>1.363805996652188e-11</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.356817380826413e-11</v>
+        <v>1.352813392853091e-11</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.344452525596272e-11</v>
+        <v>1.34084656188469e-11</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.331234145041318e-11</v>
+        <v>1.32803337267781e-11</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.317292853726733e-11</v>
+        <v>1.314501694163239e-11</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.302759266217741e-11</v>
+        <v>1.300379395271798e-11</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.287763997079563e-11</v>
+        <v>1.285794344934311e-11</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.272437660877382e-11</v>
+        <v>1.270874412081565e-11</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.25691087217642e-11</v>
+        <v>1.255747465644382e-11</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.241314245541902e-11</v>
+        <v>1.240541374553588e-11</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.225778395539008e-11</v>
+        <v>1.225384007739966e-11</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.210433936732975e-11</v>
+        <v>1.210403234134354e-11</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.195411483688985e-11</v>
+        <v>1.195726922667536e-11</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.180841650972261e-11</v>
+        <v>1.181482942270336e-11</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.166855053148025e-11</v>
+        <v>1.167799161873579e-11</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.15358230478146e-11</v>
+        <v>1.154803450408049e-11</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.14115402043779e-11</v>
+        <v>1.142623676804572e-11</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.129700814682233e-11</v>
+        <v>1.131387709993966e-11</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.119353302079978e-11</v>
+        <v>1.121223418907024e-11</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.110242097196246e-11</v>
+        <v>1.112258672474567e-11</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.10249781459625e-11</v>
+        <v>1.104621339627412e-11</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.096251068845188e-11</v>
+        <v>1.098439289296356e-11</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.09163247450828e-11</v>
+        <v>1.093840390412221e-11</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.088772646150726e-11</v>
+        <v>1.09095251190581e-11</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.087802196022894e-11</v>
+        <v>1.089903520441809e-11</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.088785298488949e-11</v>
+        <v>1.090756242991435e-11</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.091545944404551e-11</v>
+        <v>1.09333837770616e-11</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.095853866427277e-11</v>
+        <v>1.09742450640921e-11</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.10147879721469e-11</v>
+        <v>1.1027892109238e-11</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.108190469424375e-11</v>
+        <v>1.109207073073163e-11</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.115758615713897e-11</v>
+        <v>1.116452674680517e-11</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.123952968740823e-11</v>
+        <v>1.124300597569076e-11</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.132543261162737e-11</v>
+        <v>1.132525423562077e-11</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.141299225637207e-11</v>
+        <v>1.140901734482736e-11</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.149990594821796e-11</v>
+        <v>1.149204112154267e-11</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.158387101374091e-11</v>
+        <v>1.157207138399908e-11</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.166258477951658e-11</v>
+        <v>1.164685395042872e-11</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.173374457212062e-11</v>
+        <v>1.171413463906377e-11</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.179504771812887e-11</v>
+        <v>1.177165926813658e-11</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.184419154411697e-11</v>
+        <v>1.181717365587926e-11</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.187887337666072e-11</v>
+        <v>1.184842362052413e-11</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.189679054233578e-11</v>
+        <v>1.186315498030334e-11</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.189578409168698e-11</v>
+        <v>1.18592564591195e-11</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.187621838232168e-11</v>
+        <v>1.183712572137786e-11</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.184061048113475e-11</v>
+        <v>1.179930088422614e-11</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.17915464727003e-11</v>
+        <v>1.174838868953607e-11</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.173161244159231e-11</v>
+        <v>1.168699587917927e-11</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.166339447238487e-11</v>
+        <v>1.161772919502745e-11</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.158947864965212e-11</v>
+        <v>1.15431953789524e-11</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.151245105796797e-11</v>
+        <v>1.146600117282566e-11</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.143489778190664e-11</v>
+        <v>1.138875331851907e-11</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.135940490604202e-11</v>
+        <v>1.131405855790418e-11</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.128855851494827e-11</v>
+        <v>1.124452363285275e-11</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.122494469319949e-11</v>
+        <v>1.118275528523653e-11</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.117114952536962e-11</v>
+        <v>1.11313602569271e-11</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.11297590960328e-11</v>
+        <v>1.109294528979621e-11</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.110334734529777e-11</v>
+        <v>1.107010437524332e-11</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.109240347980332e-11</v>
+        <v>1.10632427433194e-11</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.109298563880961e-11</v>
+        <v>1.106811344711833e-11</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.110058512254649e-11</v>
+        <v>1.107987441552355e-11</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.11106932312439e-11</v>
+        <v>1.109368357741855e-11</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.111880126513169e-11</v>
+        <v>1.110469886168677e-11</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.112040052443979e-11</v>
+        <v>1.110807819721169e-11</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.111098230939808e-11</v>
+        <v>1.109897951287677e-11</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.108603792023643e-11</v>
+        <v>1.107256073756545e-11</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.104128897696255e-11</v>
+        <v>1.102423440818002e-11</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.097970833754849e-11</v>
+        <v>1.095742897475745e-11</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.091280723211799e-11</v>
+        <v>1.088501166865948e-11</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.085258679386883e-11</v>
+        <v>1.082039128677161e-11</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.0811048155999e-11</v>
+        <v>1.077697662597956e-11</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.080019245170641e-11</v>
+        <v>1.076817648316894e-11</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.083202081418896e-11</v>
+        <v>1.08073996552254e-11</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.091707967782306e-11</v>
+        <v>1.090644500123167e-11</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.104133219752077e-11</v>
+        <v>1.104990468267543e-11</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.117026457849509e-11</v>
+        <v>1.119970870244422e-11</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.126873820237959e-11</v>
+        <v>1.13170955614557e-11</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.130161445080793e-11</v>
+        <v>1.136330376062762e-11</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.124437781554861e-11</v>
+        <v>1.131110946403838e-11</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.112004499774322e-11</v>
+        <v>1.118491313543627e-11</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.096492162939162e-11</v>
+        <v>1.102354822533727e-11</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.081531396194197e-11</v>
+        <v>1.08658488570345e-11</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.070136606347673e-11</v>
+        <v>1.074410426206583e-11</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.062575065240387e-11</v>
+        <v>1.066142618741209e-11</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.05834879767914e-11</v>
+        <v>1.061279864560307e-11</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.056959796065693e-11</v>
+        <v>1.059320530499269e-11</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.057910052801806e-11</v>
+        <v>1.059762983393481e-11</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.060701560289241e-11</v>
+        <v>1.062105590078336e-11</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.064836310929754e-11</v>
+        <v>1.06584671738922e-11</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.069816297125114e-11</v>
+        <v>1.07048473216153e-11</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.075143511277073e-11</v>
+        <v>1.075518001230649e-11</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.080319945787402e-11</v>
+        <v>1.080444891431976e-11</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.084847593057857e-11</v>
+        <v>1.084763769600896e-11</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.088228445490197e-11</v>
+        <v>1.087973002572799e-11</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.089964495486184e-11</v>
+        <v>1.089570957183076e-11</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.089576318243479e-11</v>
+        <v>1.089074721409184e-11</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.087033228088451e-11</v>
+        <v>1.086453463153758e-11</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.082765461263516e-11</v>
+        <v>1.082140703730995e-11</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.077224273912549e-11</v>
+        <v>1.07659114084661e-11</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.070860922179425e-11</v>
+        <v>1.070259472206317e-11</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.064126662208004e-11</v>
+        <v>1.063600395515819e-11</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.057472750142163e-11</v>
+        <v>1.057068608480831e-11</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.051350442125779e-11</v>
+        <v>1.05111880880707e-11</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.04621099430271e-11</v>
+        <v>1.046205694200235e-11</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.042505662816835e-11</v>
+        <v>1.042783962366045e-11</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.040685703812024e-11</v>
+        <v>1.04130831101021e-11</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.041202373432146e-11</v>
+        <v>1.04223343783844e-11</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.04450692782107e-11</v>
+        <v>1.046014040556442e-11</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.050960522737175e-11</v>
+        <v>1.053008304297346e-11</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.060413897447194e-11</v>
+        <v>1.063027672818782e-11</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.072538263277876e-11</v>
+        <v>1.075691285447677e-11</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.087004633142404e-11</v>
+        <v>1.090618068976864e-11</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.103484019953929e-11</v>
+        <v>1.107426950199141e-11</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.121647436625595e-11</v>
+        <v>1.125736855907303e-11</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.141165896070595e-11</v>
+        <v>1.145166712894191e-11</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.161710411202075e-11</v>
+        <v>1.165335447952601e-11</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.182952016324632e-11</v>
+        <v>1.185862010078493e-11</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.208423333628034e-11</v>
+        <v>1.210373467086184e-11</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.256291106878403e-11</v>
+        <v>1.257686311406114e-11</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.348003042687718e-11</v>
+        <v>1.350021381169802e-11</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.493044928644813e-11</v>
+        <v>1.49711157533616e-11</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.68185120938102e-11</v>
+        <v>1.688800675444932e-11</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.903156367450254e-11</v>
+        <v>1.913157745870693e-11</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>2.145694885405921e-11</v>
+        <v>2.158251850987503e-11</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>2.398201245801358e-11</v>
+        <v>2.412152055169355e-11</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>2.649370913607216e-11</v>
+        <v>2.662898114788019e-11</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>2.885411605903363e-11</v>
+        <v>2.896661117883486e-11</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>3.088588229957663e-11</v>
+        <v>3.096650516447142e-11</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>3.240816174735656e-11</v>
+        <v>3.245813222288955e-11</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>3.324010829202261e-11</v>
+        <v>3.327096147218283e-11</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>3.323066742458423e-11</v>
+        <v>3.32630745954524e-11</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>3.251802161859668e-11</v>
+        <v>3.257034337729667e-11</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>3.14030005392229e-11</v>
+        <v>3.148484984717038e-11</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>3.018824640343059e-11</v>
+        <v>3.030041685254327e-11</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>2.917640142818405e-11</v>
+        <v>2.931086724088173e-11</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>2.864220801756547e-11</v>
+        <v>2.87828557108251e-11</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>2.854656355693646e-11</v>
+        <v>2.867742243186616e-11</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>2.865275717627482e-11</v>
+        <v>2.876318153413984e-11</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>2.872099667930802e-11</v>
+        <v>2.880574662836874e-11</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>2.851148986976384e-11</v>
+        <v>2.857073132527573e-11</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.778795950459177e-11</v>
+        <v>2.78272039945762e-11</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.647533446835585e-11</v>
+        <v>2.650267844861048e-11</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>2.472338980645816e-11</v>
+        <v>2.474566412813363e-11</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>2.269858690300222e-11</v>
+        <v>2.272107105594114e-11</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.056738714209256e-11</v>
+        <v>2.059380925482944e-11</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.849625190782782e-11</v>
+        <v>1.852878874758909e-11</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.6651642584314e-11</v>
+        <v>1.669091955701803e-11</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.519740495746446e-11</v>
+        <v>1.524251782712408e-11</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.420606601168226e-11</v>
+        <v>1.425533919341074e-11</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.36371956333024e-11</v>
+        <v>1.368912016639249e-11</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.344335901136614e-11</v>
+        <v>1.349665072489106e-11</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.357712133491644e-11</v>
+        <v>1.363072084772982e-11</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.39910477929951e-11</v>
+        <v>1.404412051373098e-11</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.463770357464513e-11</v>
+        <v>1.468963970171803e-11</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.546965386890857e-11</v>
+        <v>1.55200683905134e-11</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.643946386482675e-11</v>
+        <v>1.648819655893887e-11</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.749969875144371e-11</v>
+        <v>1.75468141858189e-11</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.86029237177999e-11</v>
+        <v>1.864871124997439e-11</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.970170395293961e-11</v>
+        <v>1.974667773023004e-11</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>2.074860464590411e-11</v>
+        <v>2.079350360540757e-11</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>2.169677793946249e-11</v>
+        <v>2.174255614370522e-11</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>2.251529768500164e-11</v>
+        <v>2.256286216671671e-11</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>2.319063378691296e-11</v>
+        <v>2.324055811834031e-11</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>2.371013869733555e-11</v>
+        <v>2.376264845883554e-11</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>2.406116486841064e-11</v>
+        <v>2.411613764846403e-11</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>2.4231064752278e-11</v>
+        <v>2.428803014748595e-11</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>2.420719080107802e-11</v>
+        <v>2.426533041616209e-11</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>2.397689546695099e-11</v>
+        <v>2.403504291475313e-11</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>2.352755420533627e-11</v>
+        <v>2.358419530925445e-11</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>2.286483146621726e-11</v>
+        <v>2.291826520859351e-11</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>2.204554178154978e-11</v>
+        <v>2.209433043903551e-11</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>2.113537332198187e-11</v>
+        <v>2.117842055609884e-11</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>2.020001425816189e-11</v>
+        <v>2.023656511530222e-11</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.930515276073563e-11</v>
+        <v>1.933479367216178e-11</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.851647700035208e-11</v>
+        <v>1.853913578219687e-11</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.78996751476573e-11</v>
+        <v>1.791562100092391e-11</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.75204353732996e-11</v>
+        <v>1.753027888386152e-11</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.74444458479264e-11</v>
+        <v>1.744913898652752e-11</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.773739474218503e-11</v>
+        <v>1.773823086443957e-11</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.846497022672324e-11</v>
+        <v>1.846358407311577e-11</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.969286047218721e-11</v>
+        <v>1.969122816807265e-11</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>2.148675364922661e-11</v>
+        <v>2.148719270483023e-11</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>2.389937392657898e-11</v>
+        <v>2.390448560466228e-11</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.682122583103281e-11</v>
+        <v>2.683317398866844e-11</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>3.003241639139691e-11</v>
+        <v>3.005243670053687e-11</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>3.331093673095264e-11</v>
+        <v>3.333932727202936e-11</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>3.643477797299283e-11</v>
+        <v>3.647089923491916e-11</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>3.918193124080124e-11</v>
+        <v>3.922420612097047e-11</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>4.133817770264351e-11</v>
+        <v>4.13842261683692e-11</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>4.276051174705252e-11</v>
+        <v>4.280838185218038e-11</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>4.334409289244012e-11</v>
+        <v>4.33929205131206e-11</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>4.5326311252721e-11</v>
+        <v>4.537940209322954e-11</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>5.402224889542623e-11</v>
+        <v>5.409012833015195e-11</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>6.543999872400216e-11</v>
+        <v>6.552658828334206e-11</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>7.454968831820654e-11</v>
+        <v>7.465080848944636e-11</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>7.682327929483898e-11</v>
+        <v>7.692748577329079e-11</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>7.302280617212396e-11</v>
+        <v>7.312020518482971e-11</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>6.708163287967515e-11</v>
+        <v>6.71691658564977e-11</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>6.29426868425364e-11</v>
+        <v>6.302414075150215e-11</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>6.204008313224857e-11</v>
+        <v>6.212148940661631e-11</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>6.16980860203509e-11</v>
+        <v>6.178019288863223e-11</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>6.055692607223154e-11</v>
+        <v>6.06377783645809e-11</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>5.870621883161142e-11</v>
+        <v>5.878395642914155e-11</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>5.628097269090798e-11</v>
+        <v>5.635391816947558e-11</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>5.341619604254342e-11</v>
+        <v>5.348285467274918e-11</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>5.024689727894156e-11</v>
+        <v>5.030595702613012e-11</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>4.690808479251744e-11</v>
+        <v>4.695841631677742e-11</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>4.353029698817604e-11</v>
+        <v>4.357097037900315e-11</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>4.017996045772853e-11</v>
+        <v>4.021048525473955e-11</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>3.687552900067474e-11</v>
+        <v>3.689603379333023e-11</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>3.363429956591936e-11</v>
+        <v>3.364553632452124e-11</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>3.047356910236687e-11</v>
+        <v>3.047691317805846e-11</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.741063455891318e-11</v>
+        <v>2.740808468367919e-11</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.446279288446546e-11</v>
+        <v>2.445697117113199e-11</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>2.164734102792001e-11</v>
+        <v>2.164149297015454e-11</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.898162562941373e-11</v>
+        <v>1.897961715778756e-11</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.649708312652208e-11</v>
+        <v>1.650256586399211e-11</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.425854288169693e-11</v>
+        <v>1.427297579287968e-11</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.233567223309431e-11</v>
+        <v>1.23580350002949e-11</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.079813851886913e-11</v>
+        <v>1.082493154208132e-11</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>9.710652626460861e-12</v>
+        <v>9.736049834420387e-12</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>9.054616882190788e-12</v>
+        <v>9.073034197134714e-12</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>8.742277604156772e-12</v>
+        <v>8.750505072874797e-12</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>8.683785964479162e-12</v>
+        <v>8.681052353218801e-12</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>8.789293135279101e-12</v>
+        <v>8.7772659297457e-12</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>8.968950288677709e-12</v>
+        <v>8.951735694034415e-12</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>9.132908596795798e-12</v>
+        <v>9.117051537663595e-12</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>9.199491477619861e-12</v>
+        <v>9.193547724615128e-12</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>9.170279442607024e-12</v>
+        <v>9.180456528995367e-12</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>9.095469725481636e-12</v>
+        <v>9.123081526294813e-12</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>9.02586879750084e-12</v>
+        <v>9.067303631747963e-12</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>9.01228312992157e-12</v>
+        <v>9.059003760589142e-12</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>9.105254059099863e-12</v>
+        <v>9.143828838033371e-12</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>9.314602271285434e-12</v>
+        <v>9.331488514829115e-12</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>9.565928842853437e-12</v>
+        <v>9.557365945767031e-12</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>9.778197315154688e-12</v>
+        <v>9.750924362174046e-12</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>9.923045893151224e-12</v>
+        <v>9.88725253234535e-12</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.001065057973676e-11</v>
+        <v>9.97481974575386e-12</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.005206917887851e-11</v>
+        <v>1.002285908692537e-11</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.005835949454369e-11</v>
+        <v>1.004060364038567e-11</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.004057933069951e-11</v>
+        <v>1.003728649066058e-11</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.000978649131318e-11</v>
+        <v>1.002214072227587e-11</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>9.976979161437853e-12</v>
+        <v>1.000434997837317e-11</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>9.949124168720676e-12</v>
+        <v>9.989754736701742e-12</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>9.926663541935233e-12</v>
+        <v>9.978784522919627e-12</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>9.909444466765307e-12</v>
+        <v>9.971375565110055e-12</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>9.897314128894761e-12</v>
+        <v>9.967464091356301e-12</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>9.890119714007424e-12</v>
+        <v>9.966986329741611e-12</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>9.88770840778711e-12</v>
+        <v>9.969878508349236e-12</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>9.889927395917664e-12</v>
+        <v>9.976076855262437e-12</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>9.896623864082906e-12</v>
+        <v>9.985517598564457e-12</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>9.907644997966674e-12</v>
+        <v>9.998136966338565e-12</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>9.922837983252788e-12</v>
+        <v>1.001387118666799e-11</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>9.942050005625096e-12</v>
+        <v>1.003265648763602e-11</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>9.965128250767423e-12</v>
+        <v>1.005442909732589e-11</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>9.991919904363569e-12</v>
+        <v>1.007912524382083e-11</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.002227215209741e-11</v>
+        <v>1.010668115520414e-11</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.005603217965277e-11</v>
+        <v>1.013703305955906e-11</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.009304717271342e-11</v>
+        <v>1.01701171849688e-11</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.013316431696328e-11</v>
+        <v>1.020586975951667e-11</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.017623079808613e-11</v>
+        <v>1.024422701128592e-11</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.022209380176576e-11</v>
+        <v>1.028512516835974e-11</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.02706005136861e-11</v>
+        <v>1.032850045882147e-11</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.032159811953087e-11</v>
+        <v>1.037428911075428e-11</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.037493380498401e-11</v>
+        <v>1.042242735224151e-11</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.043045475572929e-11</v>
+        <v>1.047285141136637e-11</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.048800815745056e-11</v>
+        <v>1.052549751621211e-11</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.054744119583158e-11</v>
+        <v>1.058030189486195e-11</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.060860105655629e-11</v>
+        <v>1.063720077539923e-11</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.067141432274797e-11</v>
+        <v>1.069619715755765e-11</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.073624974865592e-11</v>
+        <v>1.075766589809899e-11</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.080362911088465e-11</v>
+        <v>1.082211054250956e-11</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.087407433390687e-11</v>
+        <v>1.089003476062986e-11</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.094810734219546e-11</v>
+        <v>1.096194222230052e-11</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.102625006022313e-11</v>
+        <v>1.103833659736204e-11</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.110902441246258e-11</v>
+        <v>1.11197215556549e-11</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.119695232338672e-11</v>
+        <v>1.120660076701975e-11</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.129055571746823e-11</v>
+        <v>1.12994779012971e-11</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.139035651917979e-11</v>
+        <v>1.139885662832738e-11</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.149687665299435e-11</v>
+        <v>1.150524061795131e-11</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.161063804338448e-11</v>
+        <v>1.161913354000923e-11</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.173216261482316e-11</v>
+        <v>1.174103906434191e-11</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.186197229178304e-11</v>
+        <v>1.187146086078978e-11</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.200058899873677e-11</v>
+        <v>1.201090259919324e-11</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.214853466015735e-11</v>
+        <v>1.21598679493931e-11</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.230633120051745e-11</v>
+        <v>1.231886058122978e-11</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.247450054428966e-11</v>
+        <v>1.248838416454365e-11</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.265356461594705e-11</v>
+        <v>1.266894236917556e-11</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.284404533996225e-11</v>
+        <v>1.286103886496592e-11</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.304646464080782e-11</v>
+        <v>1.306517732175506e-11</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.326134444295691e-11</v>
+        <v>1.328186140938391e-11</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.348920667088189e-11</v>
+        <v>1.35115947976926e-11</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.373057324905593e-11</v>
+        <v>1.375488115652209e-11</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.398596610195161e-11</v>
+        <v>1.401222415571273e-11</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.425590715404144e-11</v>
+        <v>1.42841274651048e-11</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.454091832979866e-11</v>
+        <v>1.457109475453934e-11</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.484152155369582e-11</v>
+        <v>1.487362969385665e-11</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.515823875020537e-11</v>
+        <v>1.519223595289697e-11</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.549159184380067e-11</v>
+        <v>1.552741720150142e-11</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.584210275895419e-11</v>
+        <v>1.587967710951027e-11</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.621029342013837e-11</v>
+        <v>1.624951934676371e-11</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.659668575182663e-11</v>
+        <v>1.663744758310295e-11</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.700180167849104e-11</v>
+        <v>1.704396548836783e-11</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.74261631246051e-11</v>
+        <v>1.746957673239962e-11</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.787132212856307e-11</v>
+        <v>1.791581721361127e-11</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.834369807432396e-11</v>
+        <v>1.838910016782347e-11</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.885114655947611e-11</v>
+        <v>1.88972779927917e-11</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.940152338977729e-11</v>
+        <v>1.944820329486814e-11</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>2.000268437098333e-11</v>
+        <v>2.004972868040307e-11</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>2.066248530885219e-11</v>
+        <v>2.070970675574889e-11</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>2.138878200914018e-11</v>
+        <v>2.143599012725636e-11</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>2.218943027760341e-11</v>
+        <v>2.223643140127601e-11</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>2.307228592000017e-11</v>
+        <v>2.311888318416058e-11</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>2.404520474208663e-11</v>
+        <v>2.409119808226069e-11</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>2.511604254961864e-11</v>
+        <v>2.516122870192661e-11</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>2.629180269951086e-11</v>
+        <v>2.633597513916183e-11</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>2.756426174591022e-11</v>
+        <v>2.760720958856297e-11</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>2.891206604182806e-11</v>
+        <v>2.89535730962251e-11</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>3.031343169863881e-11</v>
+        <v>3.035327643556379e-11</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>3.174657482771204e-11</v>
+        <v>3.178453037998972e-11</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>3.318971154042235e-11</v>
+        <v>3.322554570291862e-11</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>3.462105794814051e-11</v>
+        <v>3.465453317776236e-11</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>3.601883016223728e-11</v>
+        <v>3.604970357793285e-11</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>3.736124429408725e-11</v>
+        <v>3.738926767684575e-11</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>3.862651645506113e-11</v>
+        <v>3.865143624791293e-11</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>3.979286275652999e-11</v>
+        <v>3.981442006454655e-11</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>4.083849930986794e-11</v>
+        <v>4.085642990016186e-11</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>4.174164222644589e-11</v>
+        <v>4.175567652817089e-11</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>4.248050761763534e-11</v>
+        <v>4.249037072198624e-11</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>4.303331159480958e-11</v>
+        <v>4.303872325502234e-11</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>4.339008481102597e-11</v>
+        <v>4.339079607091534e-11</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>4.359536581682627e-11</v>
+        <v>4.359132800122399e-11</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>4.370940226777393e-11</v>
+        <v>4.370081568535285e-11</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>4.379244328575173e-11</v>
+        <v>4.377975723357181e-11</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>4.390473799264264e-11</v>
+        <v>4.388865075615093e-11</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>4.410653551032947e-11</v>
+        <v>4.408799436336011e-11</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>4.445808496069467e-11</v>
+        <v>4.443828616546893e-11</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>4.501963546562172e-11</v>
+        <v>4.500002427274797e-11</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>4.585138544419322e-11</v>
+        <v>4.583365582413792e-11</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>4.699782686144806e-11</v>
+        <v>4.698383832099231e-11</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>4.846558863415832e-11</v>
+        <v>4.845716568848033e-11</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>5.02557089513546e-11</v>
+        <v>5.025461151476575e-11</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>5.236922600206627e-11</v>
+        <v>5.237714938801109e-11</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>5.480717797532863e-11</v>
+        <v>5.48257528963848e-11</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>5.757060306017138e-11</v>
+        <v>5.760139562804974e-11</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>6.066053944562306e-11</v>
+        <v>6.07050511711676e-11</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>6.407802532072073e-11</v>
+        <v>6.413769311390858e-11</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>6.782019652030158e-11</v>
+        <v>6.789634616537874e-11</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>7.183657025216978e-11</v>
+        <v>7.192984868620562e-11</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>7.604483685011318e-11</v>
+        <v>7.615483271487182e-11</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>8.036210426143025e-11</v>
+        <v>8.048734096000996e-11</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>8.47054804334311e-11</v>
+        <v>8.484341613026437e-11</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>8.89920733134143e-11</v>
+        <v>8.913910093426771e-11</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>9.313899084867861e-11</v>
+        <v>9.329043808065292e-11</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>9.706334098653384e-11</v>
+        <v>9.721347027806402e-11</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.006822316742786e-10</v>
+        <v>1.008242402351338e-10</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.039138276661047e-10</v>
+        <v>1.040400270562395e-10</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.066913386215151e-10</v>
+        <v>1.067957114123503e-10</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.089591751313247e-10</v>
+        <v>1.090392783399561e-10</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.10662014758156e-10</v>
+        <v>1.107190252153011e-10</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.11744535064625e-10</v>
+        <v>1.117832494146227e-10</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.121514136133501e-10</v>
+        <v>1.121802483141608e-10</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.118273408991818e-10</v>
+        <v>1.118583308836751e-10</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.107379900157676e-10</v>
+        <v>1.107846166251808e-10</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.089126854974542e-10</v>
+        <v>1.089832874422571e-10</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.063927762650478e-10</v>
+        <v>1.064893048903047e-10</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.032196112430522e-10</v>
+        <v>1.033376305289248e-10</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>9.944455606644587e-11</v>
+        <v>9.957460588476749e-11</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>9.515818446554632e-11</v>
+        <v>9.52911167322355e-11</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>9.04606620896869e-11</v>
+        <v>9.058894620795414e-11</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>8.545215458818473e-11</v>
+        <v>8.556987744853267e-11</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>8.023282761036956e-11</v>
+        <v>8.033569359059285e-11</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>7.490284680556719e-11</v>
+        <v>7.498817777075251e-11</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>6.956237782310801e-11</v>
+        <v>6.962911312563415e-11</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>6.431158631230813e-11</v>
+        <v>6.436028279184583e-11</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>5.92506379225025e-11</v>
+        <v>5.928346990601463e-11</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>5.446771161605983e-11</v>
+        <v>5.448823384806845e-11</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>4.998196573533072e-11</v>
+        <v>4.999374830514759e-11</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>4.578790483246032e-11</v>
+        <v>4.579404557761551e-11</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>4.188000269069927e-11</v>
+        <v>4.188312658840192e-11</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>3.825273309330973e-11</v>
+        <v>3.825499226044797e-11</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>3.490056982355282e-11</v>
+        <v>3.490364351669379e-11</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>3.181798666468073e-11</v>
+        <v>3.182308128007059e-11</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>2.899945739995483e-11</v>
+        <v>2.900730647351874e-11</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>2.643944079587917e-11</v>
+        <v>2.645030662168234e-11</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>2.413093960928006e-11</v>
+        <v>2.414477016389046e-11</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>2.206430476006053e-11</v>
+        <v>2.208101950959317e-11</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>2.022960568887225e-11</v>
+        <v>2.024912592597926e-11</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.861691183637256e-11</v>
+        <v>1.863916068024314e-11</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.7216292643218e-11</v>
+        <v>1.724119503957848e-11</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>1.601781755006143e-11</v>
+        <v>1.604530027117523e-11</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.501155599755958e-11</v>
+        <v>1.504154764222723e-11</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>1.418757742636849e-11</v>
+        <v>1.422000841992761e-11</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.353549045939314e-11</v>
+        <v>1.357028726233017e-11</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.303397742712347e-11</v>
+        <v>1.307092521744161e-11</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.265060927448302e-11</v>
+        <v>1.268921230388752e-11</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.235245910674113e-11</v>
+        <v>1.239193444397325e-11</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.210660002916836e-11</v>
+        <v>1.214587756000537e-11</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.188010514703428e-11</v>
+        <v>1.191782757428949e-11</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.164004756560912e-11</v>
+        <v>1.167457040913184e-11</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.135350039016313e-11</v>
+        <v>1.138289198683871e-11</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.098753672596582e-11</v>
+        <v>1.100957822971562e-11</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.052943515195353e-11</v>
+        <v>1.05421889835853e-11</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.005374593521109e-11</v>
+        <v>1.005801103681641e-11</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>9.65857634334769e-12</v>
+        <v>9.658550918193354e-12</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>9.440233418420126e-12</v>
+        <v>9.443422601973978e-12</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>9.378801229528569e-12</v>
+        <v>9.390056856297001e-12</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>9.298679565767951e-12</v>
+        <v>9.312385214761852e-12</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>9.195457092778184e-12</v>
+        <v>9.205388204395712e-12</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>9.13866770608529e-12</v>
+        <v>9.142209620771392e-12</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>9.198024101155983e-12</v>
+        <v>9.19618225864125e-12</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>9.439779466068811e-12</v>
+        <v>9.437053683665697e-12</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>9.850259543707729e-12</v>
+        <v>9.851739378898095e-12</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.033566280260476e-11</v>
+        <v>1.034411565365065e-11</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.079868823799245e-11</v>
+        <v>1.081443216983414e-11</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.114203484510496e-11</v>
+        <v>1.116293858936091e-11</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.126845383623735e-11</v>
+        <v>1.128993803252353e-11</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.113496728777709e-11</v>
+        <v>1.115129462657113e-11</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.085549714601655e-11</v>
+        <v>1.086350223828354e-11</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.05721537388955e-11</v>
+        <v>1.057191321854615e-11</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.042069676913876e-11</v>
+        <v>1.041539878069548e-11</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.041773532135813e-11</v>
+        <v>1.041123084368561e-11</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.047400147683564e-11</v>
+        <v>1.046862843425639e-11</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.049654302922311e-11</v>
+        <v>1.049305057535388e-11</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.041083410348888e-11</v>
+        <v>1.040871571441223e-11</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.022035085790382e-11</v>
+        <v>1.021925437653428e-11</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>9.949206024033394e-12</v>
+        <v>9.949306707878857e-12</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>9.621512464805118e-12</v>
+        <v>9.623512988341495e-12</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>9.261383043146725e-12</v>
+        <v>9.266513497817937e-12</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>8.892929615171388e-12</v>
+        <v>8.902947392191413e-12</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>8.536654065320404e-12</v>
+        <v>8.553423637563074e-12</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>8.20133716534963e-12</v>
+        <v>8.225465693312161e-12</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>7.893384960226176e-12</v>
+        <v>7.923945862380023e-12</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>7.619203494918081e-12</v>
+        <v>7.653736447708916e-12</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>7.385198814393263e-12</v>
+        <v>7.419709752240982e-12</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>7.197776963619015e-12</v>
+        <v>7.22673807891774e-12</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>7.063343694806604e-12</v>
+        <v>7.079693532488929e-12</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>6.974654288302657e-12</v>
+        <v>6.974205665865406e-12</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>6.892830005547401e-12</v>
+        <v>6.883969267332504e-12</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>6.814194956177081e-12</v>
+        <v>6.805211699355152e-12</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>6.74227072419489e-12</v>
+        <v>6.73883287092354e-12</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.68057889360383e-12</v>
+        <v>6.685732691027684e-12</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.632641048407148e-12</v>
+        <v>6.64681106865782e-12</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.601151149697809e-12</v>
+        <v>6.622539406736816e-12</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.584879228338378e-12</v>
+        <v>6.611357472897517e-12</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.58143357667277e-12</v>
+        <v>6.611103538611061e-12</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>6.588422308706691e-12</v>
+        <v>6.619615783013052e-12</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>6.603453538445862e-12</v>
+        <v>6.634732385239106e-12</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>6.62413537989598e-12</v>
+        <v>6.654291524424811e-12</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>6.648075947062793e-12</v>
+        <v>6.676131379705807e-12</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>6.672883353952001e-12</v>
+        <v>6.698090130217694e-12</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>6.696165714569298e-12</v>
+        <v>6.718005955096059e-12</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>6.71553114292044e-12</v>
+        <v>6.733717033476548e-12</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>6.728587753011114e-12</v>
+        <v>6.743061544494748e-12</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>6.732948637607331e-12</v>
+        <v>6.74388228607426e-12</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>6.727183615606501e-12</v>
+        <v>6.734909609447588e-12</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>6.711950508550678e-12</v>
+        <v>6.716810902576339e-12</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>6.688182577591716e-12</v>
+        <v>6.690509078309599e-12</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>6.656813083881512e-12</v>
+        <v>6.656927049496498e-12</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>6.618775288571994e-12</v>
+        <v>6.616987728986197e-12</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>6.575002452814977e-12</v>
+        <v>6.571614029627745e-12</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>6.526427837762378e-12</v>
+        <v>6.521728864270291e-12</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>6.473984704566134e-12</v>
+        <v>6.468255145763009e-12</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>6.418606314378037e-12</v>
+        <v>6.412115786954918e-12</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>6.361225928350074e-12</v>
+        <v>6.354233700695241e-12</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>6.302776807634025e-12</v>
+        <v>6.295531799832991e-12</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>6.244192213381828e-12</v>
+        <v>6.236932997217341e-12</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>6.186405406745423e-12</v>
+        <v>6.179360205697462e-12</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>6.130349648876589e-12</v>
+        <v>6.123736338122367e-12</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>6.07695820092727e-12</v>
+        <v>6.070984307341232e-12</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>6.027164324049392e-12</v>
+        <v>6.022027026203215e-12</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>5.981901279394757e-12</v>
+        <v>5.977787407557354e-12</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>5.942102328115291e-12</v>
+        <v>5.939188364252808e-12</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>5.908641367828377e-12</v>
+        <v>5.907085018251057e-12</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>5.882118486667214e-12</v>
+        <v>5.88201981154719e-12</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>5.863054881684249e-12</v>
+        <v>5.86444509553713e-12</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>5.85197174260657e-12</v>
+        <v>5.854813213251544e-12</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>5.849390259161321e-12</v>
+        <v>5.85357650772115e-12</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>5.855831621075628e-12</v>
+        <v>5.861187321976645e-12</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>5.871817018076595e-12</v>
+        <v>5.878097999048707e-12</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>5.897867639891376e-12</v>
+        <v>5.904760881968065e-12</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>5.934504676247045e-12</v>
+        <v>5.941628313765366e-12</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>5.982249316870792e-12</v>
+        <v>5.989152637471374e-12</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>6.041622751489714e-12</v>
+        <v>6.047786196116761e-12</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>6.113146169830865e-12</v>
+        <v>6.117981332732155e-12</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>6.197340761621497e-12</v>
+        <v>6.200190390348377e-12</v>
       </c>
     </row>
   </sheetData>
